--- a/target/classes/excel_sheets/cup_cost_drink_wise_report.xlsx
+++ b/target/classes/excel_sheets/cup_cost_drink_wise_report.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Drink</t>
   </si>
   <si>
-    <t>Price</t>
+    <t>Price Each</t>
   </si>
   <si>
     <t>Quantity Sold</t>
@@ -32,10 +32,10 @@
     <t>10.0</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>90.0</t>
+    <t>14</t>
+  </si>
+  <si>
+    <t>140.0</t>
   </si>
   <si>
     <t>COFFEE</t>
@@ -44,10 +44,10 @@
     <t>15.0</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>210.0</t>
+    <t>29</t>
+  </si>
+  <si>
+    <t>435.0</t>
   </si>
   <si>
     <t>BLACK_TEA</t>
@@ -62,7 +62,10 @@
     <t>BLACK_COFFEE</t>
   </si>
   <si>
-    <t>1</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>80.0</t>
   </si>
 </sst>
 </file>
@@ -121,7 +124,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="14.640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.09765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.15234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.2578125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="12.50390625" customWidth="true" bestFit="true"/>
   </cols>
@@ -193,7 +196,7 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
